--- a/Insurance domain/Project 1.xlsx
+++ b/Insurance domain/Project 1.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340"/>
+    <workbookView xWindow="0" yWindow="80" windowWidth="19140" windowHeight="7340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Insurance Domain Project sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Two wheeler Insurance" sheetId="2" r:id="rId2"/>
+    <sheet name="Family health Insurance" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Insurance Domain Project sheet'!$A$1:$E$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Insurance Domain Project sheet'!$A$1:$E$34</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Two wheeler Insurance'!$A$1:$O$87</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -170,12 +173,25 @@
   <si>
     <t xml:space="preserve">Insurance </t>
   </si>
+  <si>
+    <t>1] Two wheeler Insurance
+2] Family Health Insurance</t>
+  </si>
+  <si>
+    <t>class diagram for bike insurance</t>
+  </si>
+  <si>
+    <t>Classes Required</t>
+  </si>
+  <si>
+    <t>Sequence Diagram</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +209,14 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -225,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -300,14 +324,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -321,11 +356,160 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -334,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -342,6 +526,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -349,49 +545,70 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,6 +622,364 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="508000"/>
+          <a:ext cx="7886700" cy="4927849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>57395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="273050" y="6038850"/>
+          <a:ext cx="7861300" cy="4908795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="11569700"/>
+          <a:ext cx="7861300" cy="3949700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="355600" y="514350"/>
+          <a:ext cx="7874000" cy="5530849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="368300" y="6629400"/>
+          <a:ext cx="7880350" cy="4375375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>127179</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="406400" y="11601450"/>
+          <a:ext cx="7810500" cy="3479979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,16 +1269,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D31"/>
+  <dimension ref="B1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="122.1796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="5.08984375" style="1" customWidth="1"/>
@@ -711,257 +1286,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:4" s="18" customFormat="1" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:4" s="6" customFormat="1" ht="38.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="9">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="203" x14ac:dyDescent="0.35">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="5" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="2">
+      <c r="B12" s="16">
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
+      <c r="B13" s="18">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="8" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="2">
+      <c r="B20" s="16">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="21" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="2"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="2">
+      <c r="B22" s="16">
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="2"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B24" s="2">
+      <c r="B24" s="16">
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="117.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="2">
+      <c r="B25" s="16">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="2">
+    <row r="26" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B26" s="16">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="2:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="B28" s="2">
+      <c r="D26" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B27" s="16">
         <v>9</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="16">
+        <v>10</v>
+      </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="2">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="16">
+        <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="2">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D29" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="2">
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="24">
         <v>12</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C30" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D30" s="26" t="s">
         <v>39</v>
       </c>
     </row>
@@ -975,4 +1547,161 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:N62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="31" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="29"/>
+    </row>
+    <row r="61" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="B62:N62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="58" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R68" sqref="R68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="29"/>
+    </row>
+    <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="29"/>
+    </row>
+    <row r="61" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B62:N62"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>